--- a/ttc-2019-delays/data/TTC Station Coordinates.xlsx
+++ b/ttc-2019-delays/data/TTC Station Coordinates.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Project1\TTC_Subway_Delay_Dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Documents\GitHub\TTC_Subway_Delay_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_327B609A552F63DE53B150A3475DFE83EF834DE7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E3440AD-C57B-4BF5-94A7-23685B6E95A4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>STATION</t>
   </si>
@@ -47,9 +46,6 @@
     <t>‎43.4257</t>
   </si>
   <si>
-    <t>43°44′03</t>
-  </si>
-  <si>
     <t>BATHURST STATION</t>
   </si>
   <si>
@@ -282,12 +278,15 @@
   </si>
   <si>
     <t>YORKDALE STATION</t>
+  </si>
+  <si>
+    <t>DONLANDS STATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -355,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,6 +376,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,14 +470,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C80" totalsRowShown="0" dataDxfId="3">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C80" totalsRowShown="0" dataDxfId="3">
+  <sortState ref="A2:C79">
     <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STATION" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LAT" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LONG" dataDxfId="0"/>
+    <tableColumn id="1" name="STATION" dataDxfId="2"/>
+    <tableColumn id="2" name="LAT" dataDxfId="1"/>
+    <tableColumn id="3" name="LONG" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -740,28 +745,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -772,9 +777,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>43.395800000000001</v>
@@ -783,9 +788,9 @@
         <v>-79.244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>43.401299999999999</v>
@@ -794,9 +799,9 @@
         <v>-79.232399999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>43.460099999999997</v>
@@ -805,9 +810,9 @@
         <v>-79.231200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>43.460900000000002</v>
@@ -816,9 +821,9 @@
         <v>-79.223500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>43.6706</v>
@@ -827,9 +832,9 @@
         <v>-79.386499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>43.401600000000002</v>
@@ -838,9 +843,9 @@
         <v>-79.230900000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6">
         <v>43.403700000000001</v>
@@ -849,9 +854,9 @@
         <v>-79.212999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6">
         <v>43.402500000000003</v>
@@ -860,9 +865,9 @@
         <v>-79.220799999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6">
         <v>43.404200000000003</v>
@@ -871,9 +876,9 @@
         <v>-79.210899999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6">
         <v>43.395099999999999</v>
@@ -882,9 +887,9 @@
         <v>-79.250600000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>43.394100000000002</v>
@@ -893,9 +898,9 @@
         <v>-79.225899999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>43.410299999999999</v>
@@ -904,9 +909,9 @@
         <v>-79.192300000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>43.415199999999999</v>
@@ -915,42 +920,42 @@
         <v>-79.234999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43.680999999999997</v>
+      </c>
+      <c r="C15" s="11">
+        <v>-79.337800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43.775700000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-79.345399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>43.775700000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-79.345399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="6">
+        <v>43.405200000000001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-79.201599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43.405200000000001</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-79.201599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5">
-        <v>43.4514</v>
-      </c>
-      <c r="C17" s="5">
-        <v>-79.284199999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="B18" s="6">
         <v>43.393599999999999</v>
@@ -959,9 +964,9 @@
         <v>-79.260800000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>43.656300000000002</v>
@@ -970,9 +975,9 @@
         <v>-79.380499999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>43.392499999999998</v>
@@ -981,9 +986,9 @@
         <v>-79.271050000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5">
         <v>43.402900000000002</v>
@@ -992,9 +997,9 @@
         <v>-79.242500000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>43.4221</v>
@@ -1003,9 +1008,9 @@
         <v>-79.235399999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5">
         <v>43.415700000000001</v>
@@ -1014,9 +1019,9 @@
         <v>-79.260900000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>43.460099999999997</v>
@@ -1025,9 +1030,9 @@
         <v>-79.163499999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
         <v>43.781399999999998</v>
@@ -1036,9 +1041,9 @@
         <v>-79.415000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5">
         <v>43.465000000000003</v>
@@ -1047,9 +1052,9 @@
         <v>-79.2453</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5">
         <v>43.423200000000001</v>
@@ -1058,9 +1063,9 @@
         <v>79.262699999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8">
         <v>43.405700000000003</v>
@@ -1069,9 +1074,9 @@
         <v>-79.194900000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6">
         <v>43.391399999999997</v>
@@ -1080,9 +1085,9 @@
         <v>-79.28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5">
         <v>43.4739</v>
@@ -1091,9 +1096,9 @@
         <v>-79.313900000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6">
         <v>43.384300000000003</v>
@@ -1102,9 +1107,9 @@
         <v>-79.312799999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6">
         <v>43.385899999999999</v>
@@ -1113,9 +1118,9 @@
         <v>-79.290199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6">
         <v>43.392000000000003</v>
@@ -1124,9 +1129,9 @@
         <v>-79.273499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6">
         <v>43.435699999999997</v>
@@ -1135,9 +1140,9 @@
         <v>-79.154899999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6">
         <v>43.732500000000002</v>
@@ -1146,9 +1151,9 @@
         <v>-79.263599999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="5">
         <v>43.3857</v>
@@ -1157,9 +1162,9 @@
         <v>-79.224000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6">
         <v>43.381399999999999</v>
@@ -1168,9 +1173,9 @@
         <v>-79.320999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6">
         <v>43.393300000000004</v>
@@ -1179,9 +1184,9 @@
         <v>-79.263400000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5">
         <v>43.433</v>
@@ -1190,9 +1195,9 @@
         <v>-79.248000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>43.450099999999999</v>
@@ -1201,9 +1206,9 @@
         <v>-79.161299999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>3</v>
@@ -1212,9 +1217,9 @@
         <v>-79.263900000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <v>43.4617</v>
@@ -1223,9 +1228,9 @@
         <v>-79.215500000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="6">
         <v>43.412050000000001</v>
@@ -1234,9 +1239,9 @@
         <v>-79.180599999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
         <v>43.462899999999998</v>
@@ -1245,9 +1250,9 @@
         <v>-79.150599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="6">
         <v>43.461350000000003</v>
@@ -1256,9 +1261,9 @@
         <v>-79.161900000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="5">
         <v>43.400199999999998</v>
@@ -1267,9 +1272,9 @@
         <v>-79.233699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="5">
         <v>43.761499999999998</v>
@@ -1278,9 +1283,9 @@
         <v>-79.411100000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6">
         <v>43.39</v>
@@ -1289,9 +1294,9 @@
         <v>-79.2941</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="5">
         <v>43.390300000000003</v>
@@ -1300,9 +1305,9 @@
         <v>-79.231200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="6">
         <v>43.394399999999997</v>
@@ -1311,9 +1316,9 @@
         <v>-79.253600000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="6">
         <v>43.404800000000002</v>
@@ -1322,9 +1327,9 @@
         <v>-79.2042</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="5">
         <v>43.463700000000003</v>
@@ -1333,9 +1338,9 @@
         <v>-79.303399999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="5">
         <v>43.390900000000002</v>
@@ -1344,9 +1349,9 @@
         <v>-79.224500000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5">
         <v>43.393599999999999</v>
@@ -1355,9 +1360,9 @@
         <v>-79.232600000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="5">
         <v>43.403700000000001</v>
@@ -1366,9 +1371,9 @@
         <v>-79.231999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="6">
         <v>43.385300000000001</v>
@@ -1377,9 +1382,9 @@
         <v>-79.304100000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6">
         <v>43.390599999999999</v>
@@ -1388,9 +1393,9 @@
         <v>-79.283299999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <v>43.462800000000001</v>
@@ -1399,9 +1404,9 @@
         <v>-79.152799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="5">
         <v>43.749699999999997</v>
@@ -1410,9 +1415,9 @@
         <v>-79.4619</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="5">
         <v>43.762</v>
@@ -1421,9 +1426,9 @@
         <v>-79.411900000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6">
         <v>43.402000000000001</v>
@@ -1432,9 +1437,9 @@
         <v>-79.223500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="5">
         <v>43.400199999999998</v>
@@ -1443,9 +1448,9 @@
         <v>-79.241399999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6">
         <v>43.400199999999998</v>
@@ -1454,9 +1459,9 @@
         <v>-79.241399999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="5">
         <v>43.6477</v>
@@ -1465,9 +1470,9 @@
         <v>-79.384799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="5">
         <v>43.4116</v>
@@ -1476,9 +1481,9 @@
         <v>-79.233500000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="5">
         <v>43.4116</v>
@@ -1487,9 +1492,9 @@
         <v>-79.233500000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="5">
         <v>43.668300000000002</v>
@@ -1498,9 +1503,9 @@
         <v>-79.399900000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="6">
         <v>43.400500000000001</v>
@@ -1509,9 +1514,9 @@
         <v>-79.235900000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="5">
         <v>43.3917</v>
@@ -1520,9 +1525,9 @@
         <v>-79.231800000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="5">
         <v>43.4056</v>
@@ -1531,9 +1536,9 @@
         <v>-79.232699999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="5">
         <v>43.645299999999999</v>
@@ -1542,9 +1547,9 @@
         <v>-79.380600000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5">
         <v>43.4739</v>
@@ -1553,9 +1558,9 @@
         <v>-79.313900000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="6">
         <v>43.414200000000001</v>
@@ -1564,9 +1569,9 @@
         <v>-79.171899999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="6">
         <v>43.424100000000003</v>
@@ -1575,9 +1580,9 @@
         <v>-79.164699999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7">
         <v>43.395499999999998</v>
@@ -1586,20 +1591,20 @@
         <v>-79.230199999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="5">
+        <v>43.440300000000001</v>
       </c>
       <c r="C76" s="5">
         <v>-79.27</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="6">
         <v>43.411099999999998</v>
@@ -1608,9 +1613,9 @@
         <v>-79.184600000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5">
         <v>43.744900000000001</v>
@@ -1619,9 +1624,9 @@
         <v>-79.406700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="5">
         <v>43.773899999999998</v>
@@ -1630,9 +1635,9 @@
         <v>-79.499799999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="5">
         <v>43.724899999999998</v>
